--- a/output3.xlsx
+++ b/output3.xlsx
@@ -725,7 +725,7 @@
         <v>28</v>
       </c>
       <c r="D18">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>60</v>
@@ -809,7 +809,7 @@
         <v>35</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>61</v>
@@ -865,7 +865,7 @@
         <v>30</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -918,7 +918,7 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32">
         <v>34</v>
@@ -949,7 +949,7 @@
         <v>28</v>
       </c>
       <c r="D34">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4">
